--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>Sdc1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>Sdc1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H2">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>0.1017901055831111</v>
+        <v>0.3294224778133333</v>
       </c>
       <c r="R2">
-        <v>0.9161109502479999</v>
+        <v>2.96480230032</v>
       </c>
       <c r="S2">
-        <v>0.001160781425658574</v>
+        <v>0.003777946078353925</v>
       </c>
       <c r="T2">
-        <v>0.001160781425658575</v>
+        <v>0.003777946078353924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H3">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>0.8988862098435554</v>
+        <v>2.841730291235555</v>
       </c>
       <c r="R3">
-        <v>8.089975888591999</v>
+        <v>25.57557262112</v>
       </c>
       <c r="S3">
-        <v>0.01025060746513418</v>
+        <v>0.03259007667229194</v>
       </c>
       <c r="T3">
-        <v>0.01025060746513418</v>
+        <v>0.03259007667229193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H4">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>0.1811213028791111</v>
+        <v>1.00553260432</v>
       </c>
       <c r="R4">
-        <v>1.630091725912</v>
+        <v>9.049793438880002</v>
       </c>
       <c r="S4">
-        <v>0.002065448728722374</v>
+        <v>0.01153184198104528</v>
       </c>
       <c r="T4">
-        <v>0.002065448728722374</v>
+        <v>0.01153184198104527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H5">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>0.7342918765173332</v>
+        <v>1.472451478293333</v>
       </c>
       <c r="R5">
-        <v>6.608626888656</v>
+        <v>13.25206330464</v>
       </c>
       <c r="S5">
-        <v>0.008373626949206361</v>
+        <v>0.01688665061628524</v>
       </c>
       <c r="T5">
-        <v>0.008373626949206363</v>
+        <v>0.01688665061628524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H6">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>0.06023331546844444</v>
+        <v>0.1198102963377778</v>
       </c>
       <c r="R6">
-        <v>0.542099839216</v>
+        <v>1.07829266704</v>
       </c>
       <c r="S6">
-        <v>0.0006868812386142596</v>
+        <v>0.001374031432828379</v>
       </c>
       <c r="T6">
-        <v>0.0006868812386142596</v>
+        <v>0.001374031432828378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H7">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I7">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J7">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>0.06687784923733332</v>
+        <v>0.4246254410133333</v>
       </c>
       <c r="R7">
-        <v>0.6019006431359999</v>
+        <v>3.82162896912</v>
       </c>
       <c r="S7">
-        <v>0.000762653351600132</v>
+        <v>0.004869770970985934</v>
       </c>
       <c r="T7">
-        <v>0.0007626533516001321</v>
+        <v>0.004869770970985932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>2.538883</v>
       </c>
       <c r="H8">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I8">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J8">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>3.498265106213667</v>
+        <v>3.581147788042999</v>
       </c>
       <c r="R8">
-        <v>31.484385955923</v>
+        <v>32.23033009238699</v>
       </c>
       <c r="S8">
-        <v>0.03989308326246687</v>
+        <v>0.04107000630815874</v>
       </c>
       <c r="T8">
-        <v>0.03989308326246687</v>
+        <v>0.04107000630815873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>2.538883</v>
       </c>
       <c r="H9">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I9">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J9">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>30.89241576417133</v>
@@ -1013,10 +1013,10 @@
         <v>278.031741877542</v>
       </c>
       <c r="S9">
-        <v>0.3522871128519781</v>
+        <v>0.3542863309202096</v>
       </c>
       <c r="T9">
-        <v>0.3522871128519781</v>
+        <v>0.3542863309202096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>2.538883</v>
       </c>
       <c r="H10">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I10">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J10">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>6.224675082359668</v>
+        <v>10.931132828787</v>
       </c>
       <c r="R10">
-        <v>56.022075741237</v>
+        <v>98.380195459083</v>
       </c>
       <c r="S10">
-        <v>0.07098418038738831</v>
+        <v>0.1253625152618842</v>
       </c>
       <c r="T10">
-        <v>0.0709841803873883</v>
+        <v>0.1253625152618841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,13 +1104,13 @@
         <v>2.538883</v>
       </c>
       <c r="H11">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I11">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J11">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>25.235730277334</v>
+        <v>16.007002283186</v>
       </c>
       <c r="R11">
-        <v>227.121572496006</v>
+        <v>144.063020548674</v>
       </c>
       <c r="S11">
-        <v>0.2877801020153309</v>
+        <v>0.1835745754308609</v>
       </c>
       <c r="T11">
-        <v>0.2877801020153309</v>
+        <v>0.1835745754308608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1166,13 +1166,13 @@
         <v>2.538883</v>
       </c>
       <c r="H12">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I12">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J12">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>2.070064713340667</v>
+        <v>1.302456288237666</v>
       </c>
       <c r="R12">
-        <v>18.630582420066</v>
+        <v>11.722106594139</v>
       </c>
       <c r="S12">
-        <v>0.02360634813562639</v>
+        <v>0.01493707915451706</v>
       </c>
       <c r="T12">
-        <v>0.02360634813562638</v>
+        <v>0.01493707915451706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,43 +1228,43 @@
         <v>2.538883</v>
       </c>
       <c r="H13">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I13">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J13">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>2.298420313304</v>
+        <v>4.616098054162999</v>
       </c>
       <c r="R13">
-        <v>20.685782819736</v>
+        <v>41.544882487467</v>
       </c>
       <c r="S13">
-        <v>0.02621044150368099</v>
+        <v>0.05293922156369752</v>
       </c>
       <c r="T13">
-        <v>0.02621044150368099</v>
+        <v>0.05293922156369751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H14">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>3.444689166666666E-05</v>
+        <v>0.727202564676</v>
       </c>
       <c r="R14">
-        <v>0.000310022025</v>
+        <v>6.544823082083999</v>
       </c>
       <c r="S14">
-        <v>3.928212058459061E-07</v>
+        <v>0.008339844007072829</v>
       </c>
       <c r="T14">
-        <v>3.928212058459061E-07</v>
+        <v>0.008339844007072827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H15">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>0.0003041929833333333</v>
+        <v>6.273140708615999</v>
       </c>
       <c r="R15">
-        <v>0.00273773685</v>
+        <v>56.45826637754399</v>
       </c>
       <c r="S15">
-        <v>3.468918347674726E-06</v>
+        <v>0.07194283613065257</v>
       </c>
       <c r="T15">
-        <v>3.468918347674726E-06</v>
+        <v>0.07194283613065255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H16">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I16">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J16">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>6.129344166666667E-05</v>
+        <v>2.219720686884</v>
       </c>
       <c r="R16">
-        <v>0.000551640975</v>
+        <v>19.977486181956</v>
       </c>
       <c r="S16">
-        <v>6.989705747309771E-07</v>
+        <v>0.02545662676001846</v>
       </c>
       <c r="T16">
-        <v>6.98970574730977E-07</v>
+        <v>0.02545662676001845</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H17">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I17">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J17">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>0.00024849245</v>
+        <v>3.250447566552</v>
       </c>
       <c r="R17">
-        <v>0.00223643205</v>
+        <v>29.254028098968</v>
       </c>
       <c r="S17">
-        <v>2.83372748975958E-06</v>
+        <v>0.03727740656455335</v>
       </c>
       <c r="T17">
-        <v>2.83372748975958E-06</v>
+        <v>0.03727740656455335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H18">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I18">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J18">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>2.038361666666667E-05</v>
+        <v>0.264482118372</v>
       </c>
       <c r="R18">
-        <v>0.00018345255</v>
+        <v>2.380339065348</v>
       </c>
       <c r="S18">
-        <v>2.324481685019198E-07</v>
+        <v>0.003033184585735616</v>
       </c>
       <c r="T18">
-        <v>2.324481685019198E-07</v>
+        <v>0.003033184585735616</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,433 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H19">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I19">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J19">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>2.26322E-05</v>
+        <v>0.937363812516</v>
       </c>
       <c r="R19">
-        <v>0.0002036898</v>
+        <v>8.436274312643999</v>
       </c>
       <c r="S19">
-        <v>2.580902852128375E-07</v>
+        <v>0.01075005556084847</v>
       </c>
       <c r="T19">
-        <v>2.580902852128375E-07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.557804</v>
-      </c>
-      <c r="H20">
-        <v>1.673412</v>
-      </c>
-      <c r="I20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.377875666666666</v>
-      </c>
-      <c r="N20">
-        <v>4.133627</v>
-      </c>
-      <c r="O20">
-        <v>0.04981894710555809</v>
-      </c>
-      <c r="P20">
-        <v>0.04981894710555809</v>
-      </c>
-      <c r="Q20">
-        <v>0.7685845583693331</v>
-      </c>
-      <c r="R20">
-        <v>6.917261025323999</v>
-      </c>
-      <c r="S20">
-        <v>0.008764689596226793</v>
-      </c>
-      <c r="T20">
-        <v>0.008764689596226793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.557804</v>
-      </c>
-      <c r="H21">
-        <v>1.673412</v>
-      </c>
-      <c r="I21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>12.16771933333333</v>
-      </c>
-      <c r="N21">
-        <v>36.503158</v>
-      </c>
-      <c r="O21">
-        <v>0.4399402504357141</v>
-      </c>
-      <c r="P21">
-        <v>0.4399402504357141</v>
-      </c>
-      <c r="Q21">
-        <v>6.787202515010666</v>
-      </c>
-      <c r="R21">
-        <v>61.084822635096</v>
-      </c>
-      <c r="S21">
-        <v>0.07739906120025411</v>
-      </c>
-      <c r="T21">
-        <v>0.07739906120025412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.557804</v>
-      </c>
-      <c r="H22">
-        <v>1.673412</v>
-      </c>
-      <c r="I22">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J22">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.451737666666667</v>
-      </c>
-      <c r="N22">
-        <v>7.355213</v>
-      </c>
-      <c r="O22">
-        <v>0.08864587138537494</v>
-      </c>
-      <c r="P22">
-        <v>0.08864587138537493</v>
-      </c>
-      <c r="Q22">
-        <v>1.367589077417333</v>
-      </c>
-      <c r="R22">
-        <v>12.308301696756</v>
-      </c>
-      <c r="S22">
-        <v>0.01559554329868952</v>
-      </c>
-      <c r="T22">
-        <v>0.01559554329868952</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.557804</v>
-      </c>
-      <c r="H23">
-        <v>1.673412</v>
-      </c>
-      <c r="I23">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J23">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>9.939698</v>
-      </c>
-      <c r="N23">
-        <v>29.819094</v>
-      </c>
-      <c r="O23">
-        <v>0.3593831438399412</v>
-      </c>
-      <c r="P23">
-        <v>0.3593831438399412</v>
-      </c>
-      <c r="Q23">
-        <v>5.544403303191999</v>
-      </c>
-      <c r="R23">
-        <v>49.89962972872799</v>
-      </c>
-      <c r="S23">
-        <v>0.06322658114791412</v>
-      </c>
-      <c r="T23">
-        <v>0.06322658114791412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.557804</v>
-      </c>
-      <c r="H24">
-        <v>1.673412</v>
-      </c>
-      <c r="I24">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J24">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.8153446666666667</v>
-      </c>
-      <c r="N24">
-        <v>2.446034</v>
-      </c>
-      <c r="O24">
-        <v>0.02947988254973095</v>
-      </c>
-      <c r="P24">
-        <v>0.02947988254973094</v>
-      </c>
-      <c r="Q24">
-        <v>0.4548025164453333</v>
-      </c>
-      <c r="R24">
-        <v>4.093222648008</v>
-      </c>
-      <c r="S24">
-        <v>0.005186420727321795</v>
-      </c>
-      <c r="T24">
-        <v>0.005186420727321795</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.557804</v>
-      </c>
-      <c r="H25">
-        <v>1.673412</v>
-      </c>
-      <c r="I25">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J25">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.905288</v>
-      </c>
-      <c r="N25">
-        <v>2.715864</v>
-      </c>
-      <c r="O25">
-        <v>0.0327319046836808</v>
-      </c>
-      <c r="P25">
-        <v>0.0327319046836808</v>
-      </c>
-      <c r="Q25">
-        <v>0.504973267552</v>
-      </c>
-      <c r="R25">
-        <v>4.544759407968</v>
-      </c>
-      <c r="S25">
-        <v>0.005758551738114465</v>
-      </c>
-      <c r="T25">
-        <v>0.005758551738114465</v>
+        <v>0.01075005556084847</v>
       </c>
     </row>
   </sheetData>
